--- a/src/main/resources/testdata/testdata_sheet.xlsx
+++ b/src/main/resources/testdata/testdata_sheet.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -173,7 +174,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,12 +233,12 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -522,7 +523,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -536,130 +537,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -672,4 +673,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/testdata/testdata_sheet.xlsx
+++ b/src/main/resources/testdata/testdata_sheet.xlsx
@@ -523,12 +523,13 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" customWidth="1"/>
     <col min="4" max="4" width="16.1796875" customWidth="1"/>
     <col min="7" max="7" width="17.6328125" customWidth="1"/>
     <col min="8" max="8" width="17.7265625" customWidth="1"/>
